--- a/World-fondsen.xlsx
+++ b/World-fondsen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="335" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D86D83-CEB8-41AE-A3E5-DB6C171F27AE}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C479614-2B14-4BFF-A9FD-AD0F4B636114}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,28 +372,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.2052337568561505E-3</c:v>
+                  <c:v>1.3432337568561506E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3037500000000002E-3</c:v>
+                  <c:v>1.3258000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1337499999999998E-3</c:v>
+                  <c:v>2.1557999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2087499999999998E-3</c:v>
+                  <c:v>2.2307999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3015327507945084E-3</c:v>
+                  <c:v>2.4563327507945085E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4037500000000001E-3</c:v>
+                  <c:v>2.4258000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.28E-3</c:v>
+                  <c:v>4.64E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8599999999999997E-3</c:v>
+                  <c:v>5.2199999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1387,7 +1387,7 @@
   <dimension ref="B1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D4" s="4">
         <f>C4*$C$1</f>
-        <v>1.8375000000000002E-4</v>
+        <v>2.0580000000000002E-4</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D7" si="0">C5*$C$1</f>
-        <v>1.15E-3</v>
+        <v>1.2880000000000001E-3</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>1.2900000000000001E-3</v>
+        <v>1.4448E-3</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>3.3600000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G11" s="1">
         <f>F11+$D$5</f>
-        <v>1.2052337568561505E-3</v>
+        <v>1.3432337568561506E-3</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G12" s="1">
         <f>F12+$D$4</f>
-        <v>1.3037500000000002E-3</v>
+        <v>1.3258000000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="G13" s="1">
         <f>F13+$D$4</f>
-        <v>2.1337499999999998E-3</v>
+        <v>2.1557999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="G14" s="1">
         <f>F14+$D$4</f>
-        <v>2.2087499999999998E-3</v>
+        <v>2.2307999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="G15" s="1">
         <f>F15+$D$6</f>
-        <v>2.3015327507945084E-3</v>
+        <v>2.4563327507945085E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="G16" s="1">
         <f>F16+$D$4</f>
-        <v>2.4037500000000001E-3</v>
+        <v>2.4258000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="G17" s="1">
         <f>F17+$D$7</f>
-        <v>4.28E-3</v>
+        <v>4.64E-3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G18" s="1">
         <f>F18+$D$7</f>
-        <v>4.8599999999999997E-3</v>
+        <v>5.2199999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">

--- a/World-fondsen.xlsx
+++ b/World-fondsen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C479614-2B14-4BFF-A9FD-AD0F4B636114}"/>
+  <xr:revisionPtr revIDLastSave="383" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77180A46-0810-4E46-BA3E-F1D1755B70D3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Nederlands</t>
   </si>
@@ -154,6 +154,21 @@
   </si>
   <si>
     <t>VanEck TGET</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>Northern Trust NTEM</t>
+  </si>
+  <si>
+    <t>Northern Trust NTSC</t>
+  </si>
+  <si>
+    <t>Vanguard 2 fund</t>
+  </si>
+  <si>
+    <t>Vanguard VFEM</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M49"/>
+  <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,6 +1900,7 @@
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
       <c r="H38" s="9">
         <f>SUM(H36:H37)</f>
         <v>76145681</v>
@@ -1894,44 +1910,182 @@
         <v>5.5233756856150531E-5</v>
       </c>
     </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="I40" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D41" s="4">
+        <v>4.4999999999999999E-4</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1">
+        <f>SUM(C41:E41)+$D$4</f>
+        <v>2.4557999999999997E-3</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="J41" s="1">
+        <f>I41*F41</f>
+        <v>1.9793747999999997E-3</v>
+      </c>
+    </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42:F43" si="4">SUM(C42:E42)+$D$4</f>
+        <v>3.2358E-3</v>
+      </c>
+      <c r="I42" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" ref="J42:J43" si="5">I42*F42</f>
+        <v>3.1387260000000002E-4</v>
+      </c>
       <c r="M42" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="4"/>
+        <v>3.9058000000000001E-3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="5"/>
+        <v>3.7495680000000002E-4</v>
+      </c>
       <c r="M43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <f>SUM(J41:J43)</f>
+        <v>2.6682041999999996E-3</v>
+      </c>
       <c r="M44" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="M45" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-1.2E-4</v>
+      </c>
+      <c r="F46" s="4">
+        <f>SUM(C46:E46)</f>
+        <v>1.2799999999999999E-3</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="J46" s="4">
+        <f>I46*F46</f>
+        <v>1.13664E-3</v>
+      </c>
       <c r="M46" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D47" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-1E-4</v>
+      </c>
+      <c r="F47" s="4">
+        <f>SUM(C47:E47)</f>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="J47" s="4">
+        <f>I47*F47</f>
+        <v>3.1360000000000003E-4</v>
+      </c>
       <c r="M47" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <f>SUM(J46:J47)+(2.5%*12%)</f>
+        <v>4.4502400000000003E-3</v>
+      </c>
       <c r="M48" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M49" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <f>J48-J44</f>
+        <v>1.7820358000000007E-3</v>
       </c>
     </row>
   </sheetData>

--- a/World-fondsen.xlsx
+++ b/World-fondsen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="383" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77180A46-0810-4E46-BA3E-F1D1755B70D3}"/>
+  <xr:revisionPtr revIDLastSave="385" documentId="11_F25DC773A252ABDACC104865891F55C05BDE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD00B70F-6C9B-4AC6-AA4E-4238A7F25598}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1110" windowWidth="15330" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,9 +239,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Procent" xfId="2" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,7 +259,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -387,28 +387,28 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.3432337568561506E-3</c:v>
+                  <c:v>1.2052337568561505E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3258000000000002E-3</c:v>
+                  <c:v>1.3037500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1557999999999998E-3</c:v>
+                  <c:v>2.1337499999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2307999999999998E-3</c:v>
+                  <c:v>2.2087499999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4563327507945085E-3</c:v>
+                  <c:v>2.3015327507945084E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.4258000000000001E-3</c:v>
+                  <c:v>2.4037500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.64E-3</c:v>
+                  <c:v>4.28E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2199999999999998E-3</c:v>
+                  <c:v>4.8599999999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1418,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D4" s="4">
         <f>C4*$C$1</f>
-        <v>2.0580000000000002E-4</v>
+        <v>1.8375000000000002E-4</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:D7" si="0">C5*$C$1</f>
-        <v>1.2880000000000001E-3</v>
+        <v>1.15E-3</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>1.4448E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>3.3600000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G11" s="1">
         <f>F11+$D$5</f>
-        <v>1.3432337568561506E-3</v>
+        <v>1.2052337568561505E-3</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="G12" s="1">
         <f>F12+$D$4</f>
-        <v>1.3258000000000002E-3</v>
+        <v>1.3037500000000002E-3</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="G13" s="1">
         <f>F13+$D$4</f>
-        <v>2.1557999999999998E-3</v>
+        <v>2.1337499999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="G14" s="1">
         <f>F14+$D$4</f>
-        <v>2.2307999999999998E-3</v>
+        <v>2.2087499999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="G15" s="1">
         <f>F15+$D$6</f>
-        <v>2.4563327507945085E-3</v>
+        <v>2.3015327507945084E-3</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G16" s="1">
         <f>F16+$D$4</f>
-        <v>2.4258000000000001E-3</v>
+        <v>2.4037500000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G17" s="1">
         <f>F17+$D$7</f>
-        <v>4.64E-3</v>
+        <v>4.28E-3</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="1">
         <f>F18+$D$7</f>
-        <v>5.2199999999999998E-3</v>
+        <v>4.8599999999999997E-3</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1935,14 +1935,14 @@
       <c r="E41" s="4"/>
       <c r="F41" s="1">
         <f>SUM(C41:E41)+$D$4</f>
-        <v>2.4557999999999997E-3</v>
+        <v>2.4337499999999997E-3</v>
       </c>
       <c r="I41" s="1">
         <v>0.80600000000000005</v>
       </c>
       <c r="J41" s="1">
         <f>I41*F41</f>
-        <v>1.9793747999999997E-3</v>
+        <v>1.9616025E-3</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -1957,14 +1957,14 @@
       </c>
       <c r="F42" s="1">
         <f t="shared" ref="F42:F43" si="4">SUM(C42:E42)+$D$4</f>
-        <v>3.2358E-3</v>
+        <v>3.21375E-3</v>
       </c>
       <c r="I42" s="1">
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="J42" s="1">
         <f t="shared" ref="J42:J43" si="5">I42*F42</f>
-        <v>3.1387260000000002E-4</v>
+        <v>3.1173375E-4</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>38</v>
@@ -1982,14 +1982,14 @@
       </c>
       <c r="F43" s="1">
         <f t="shared" si="4"/>
-        <v>3.9058000000000001E-3</v>
+        <v>3.88375E-3</v>
       </c>
       <c r="I43" s="1">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="J43" s="1">
         <f t="shared" si="5"/>
-        <v>3.7495680000000002E-4</v>
+        <v>3.7283999999999999E-4</v>
       </c>
       <c r="M43" t="s">
         <v>31</v>
@@ -1998,7 +1998,7 @@
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="J44" s="4">
         <f>SUM(J41:J43)</f>
-        <v>2.6682041999999996E-3</v>
+        <v>2.64617625E-3</v>
       </c>
       <c r="M44" t="s">
         <v>32</v>
@@ -2085,7 +2085,7 @@
     <row r="50" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J50" s="4">
         <f>J48-J44</f>
-        <v>1.7820358000000007E-3</v>
+        <v>1.8040637500000003E-3</v>
       </c>
     </row>
   </sheetData>
